--- a/kucing.xlsx
+++ b/kucing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neuron-NB 112\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 5\AI\Fuzzy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>nutrisi</t>
+  </si>
+  <si>
+    <t>hasil</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -414,7 +417,7 @@
     <col min="2" max="2" width="12.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,8 +427,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -436,7 +442,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -447,7 +453,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -458,7 +464,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -469,7 +475,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -480,7 +486,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -491,7 +497,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -502,7 +508,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -513,7 +519,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -524,7 +530,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -535,7 +541,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -546,7 +552,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -557,7 +563,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -568,7 +574,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -579,7 +585,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
